--- a/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D029 Al Burhani/Al Burhani Progress Assessment - March 2023.xlsx
+++ b/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D029 Al Burhani/Al Burhani Progress Assessment - March 2023.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himal\OneDrive\Documents\Work\ECON\Omniyat\Payments\Contractor Payment Cerfificates\KCE\Sub Contractor Payment\D029 Al Burhani\3 March\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tharaka\F015 - Plot 18\Main Scope\Payments\Mar 2023\Omniyat Concept Investments LLC-Plot 18-2023-04-07-12-08-20-987\06b. Subcontractor Cost &amp; Backup\2. Domestic SC's\D29. Burhani\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014854B9-8F31-4068-B7E5-FC2733589272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D64B101-4FDD-4347-B939-393DE219EE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{10C72068-7B71-403E-80AB-B80EC449AF66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10C72068-7B71-403E-80AB-B80EC449AF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -245,7 +245,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -279,6 +279,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -595,25 +599,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D97A23-BC43-4392-A2D4-37D2D211A5AD}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.77734375" style="4"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -648,7 +652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -663,7 +667,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -678,7 +682,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -714,7 +718,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -750,7 +754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -763,7 +767,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -778,7 +782,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>11</v>
@@ -793,7 +797,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
@@ -829,7 +833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -851,7 +855,7 @@
         <v>3691.8</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" ref="H10:H26" si="1">J10-G10</f>
+        <f t="shared" ref="H10:H29" si="1">J10-G10</f>
         <v>0</v>
       </c>
       <c r="I10" s="8">
@@ -865,7 +869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>14</v>
@@ -901,7 +905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
@@ -937,7 +941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -973,7 +977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
@@ -1009,7 +1013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
@@ -1045,7 +1049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
         <v>19</v>
@@ -1081,7 +1085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
@@ -1094,7 +1098,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1128,56 +1132,42 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <f>SUM(G3:G18)</f>
+        <v>119607.70000000001</v>
+      </c>
+      <c r="H19" s="9">
+        <f>SUM(H3:H18)</f>
+        <v>1839.1500000000024</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9">
+        <f>SUM(J3:J18)</f>
+        <v>121446.85</v>
+      </c>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7">
-        <v>5978</v>
-      </c>
-      <c r="F20" s="7">
-        <f>E20</f>
-        <v>5978</v>
-      </c>
-      <c r="G20" s="7">
-        <v>5978</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" ref="J20" si="3">PRODUCT(I20,F20)</f>
-        <v>5978</v>
-      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -1190,210 +1180,272 @@
       <c r="J21" s="7"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7">
-        <f>SUM(F4:F18)</f>
-        <v>133660</v>
-      </c>
-      <c r="G22" s="9">
-        <f>SUM(G4:G20)</f>
-        <v>125585.70000000001</v>
-      </c>
-      <c r="H22" s="9">
-        <f>J22-G22</f>
-        <v>1839.1499999999942</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="9">
-        <f>SUM(J4:J20)</f>
-        <v>127424.85</v>
-      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7">
+        <v>5978</v>
+      </c>
       <c r="F23" s="7">
-        <v>-203</v>
+        <f>E23</f>
+        <v>5978</v>
       </c>
       <c r="G23" s="7">
-        <v>-190.73692278916658</v>
+        <v>5978</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>-2.7932623821636753</v>
-      </c>
-      <c r="I23" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
       <c r="J23" s="7">
-        <f>F23/F22*J22</f>
-        <v>-193.53018517133026</v>
+        <f>PRODUCT(I23,F23)</f>
+        <v>5978</v>
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7">
-        <f>SUM(F22:F23)</f>
-        <v>133457</v>
-      </c>
-      <c r="G24" s="9">
-        <f>SUM(G22:G23)</f>
-        <v>125394.96307721085</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="1"/>
-        <v>1836.3567376178253</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9">
-        <f>SUM(J22:J23)</f>
-        <v>127231.31981482868</v>
-      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
-        <v>34477.199999999997</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="7">
-        <v>34477.199999999997</v>
+      <c r="F25" s="9">
+        <f>F23+F19</f>
+        <v>5978</v>
+      </c>
+      <c r="G25" s="9">
+        <f>G23+G19</f>
+        <v>125585.70000000001</v>
+      </c>
+      <c r="H25" s="9">
+        <f>J25-G25</f>
+        <v>1839.1499999999942</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9">
+        <f>J23+J19</f>
+        <v>127424.85</v>
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>-203</v>
+      </c>
       <c r="G26" s="7">
-        <v>-30268.488923163255</v>
+        <v>-190.73692278916658</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>-550.90702128534758</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0.3</v>
-      </c>
+        <v>-4136.3364378665719</v>
+      </c>
+      <c r="I26" s="8"/>
       <c r="J26" s="7">
-        <f>-IF(SUM(J4:J5,J9:J16,J23)*I26&gt;J25,J25,SUM(J4:J5,J9:J16,J23)*I26)</f>
-        <v>-30819.395944448603</v>
+        <f>F26/F25*J25</f>
+        <v>-4327.0733606557387</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <f>SUM(F25:F26)</f>
+        <v>5775</v>
+      </c>
       <c r="G27" s="9">
-        <f>SUM(G24:G26)</f>
-        <v>129603.67415404758</v>
+        <f>SUM(G25:G26)</f>
+        <v>125394.96307721085</v>
       </c>
       <c r="H27" s="9">
-        <f>SUM(H24:H26)</f>
-        <v>1285.4497163324777</v>
+        <f t="shared" si="1"/>
+        <v>-2297.1864378665778</v>
       </c>
       <c r="I27" s="10"/>
       <c r="J27" s="9">
-        <f>SUM(J24:J26)</f>
-        <v>130889.12387038008</v>
+        <f>SUM(J25:J26)</f>
+        <v>123097.77663934427</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="7">
+        <v>34477.199999999997</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>34477.199999999997</v>
+      </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11"/>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F33" s="1" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7">
+        <v>-30268.488923163255</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>689.15593135997551</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J29" s="7">
+        <f>-IF(SUM(J4:J5,J9:J16,J26)*I29&gt;J28,J28,SUM(J4:J5,J9:J16,J26)*I29)</f>
+        <v>-29579.33299180328</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9">
+        <f>SUM(G27:G29)</f>
+        <v>129603.67415404758</v>
+      </c>
+      <c r="H30" s="9">
+        <f>SUM(H27:H29)</f>
+        <v>-1608.0305065066023</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9">
+        <f>SUM(J27:J29)</f>
+        <v>127995.64364754099</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G36" s="1">
         <v>134374.65</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H36" s="1">
         <v>6425.45</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
         <v>166537.97</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F34" s="1" t="s">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="1">
-        <f>G27-G33</f>
+      <c r="G37" s="1">
+        <f>G30-G36</f>
         <v>-4770.9758459524164</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" ref="H34:J34" si="4">H27-H33</f>
-        <v>-5140.0002836675221</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="4"/>
+      <c r="H37" s="1">
+        <f t="shared" ref="H37:J37" si="3">H30-H36</f>
+        <v>-8033.4805065066021</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J34" s="1">
-        <f t="shared" si="4"/>
-        <v>-35648.846129619924</v>
+      <c r="J37" s="1">
+        <f t="shared" si="3"/>
+        <v>-38542.326352459015</v>
       </c>
     </row>
   </sheetData>
